--- a/domande/panieredomandegpoi_1_2.xlsx
+++ b/domande/panieredomandegpoi_1_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Documents\_estraicompiti\domande\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Documents\GeneraVerificheDOCX\domande\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D1A67-80E0-43AC-BF5F-537060B24A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B92557-E4D1-444F-8BC1-6ACD510C9337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="25380" windowHeight="13590" xr2:uid="{17F91704-6794-46B1-B0EB-8EDB3F9B9E5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17F91704-6794-46B1-B0EB-8EDB3F9B9E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -878,32 +878,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Qual è la funzione primaria dell'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>organigramma aziendale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e cosa rappresenta graficamente, secondo il testo?</t>
-    </r>
-  </si>
-  <si>
     <t>Quali sono i tre principali parametri in base ai quali può essere classificato il sistema azienda?</t>
   </si>
   <si>
@@ -1513,32 +1487,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Come viene calcolato il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Costo di Conversione</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Spiega la composizione del </t>
     </r>
     <r>
@@ -1715,32 +1663,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elenca le cinque fasi che compongono il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Costo del Ciclo di Vita (Life Cycle Cost, LCC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di un prodotto (Concept, Progettazione, Ingegnerizzazione, Produzione, Logistica).</t>
-    </r>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -1748,6 +1670,15 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spiegare il concetto di "profitto" come fine aziendale e distinguere le aziende in base a tale parametro</t>
+  </si>
+  <si>
+    <t>Qual è il ruolo dei software gestionali e dei sistemi informativi integrati (ERP) nel calcolo e nella gestione dei dati sui costi aziendali?</t>
+  </si>
+  <si>
+    <t>Cosa sono i costi di periodo e perché vengono sostenuti indipendentemente dalla quantità prodotta dall'azienda? Fornire due esempi di tali costi.</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2052,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,7 +2062,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2154,7 +2085,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2177,7 +2108,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2200,7 +2131,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2223,7 +2154,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -2246,7 +2177,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -2269,7 +2200,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -2292,7 +2223,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -2315,7 +2246,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -2338,7 +2269,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -2361,7 +2292,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -2384,7 +2315,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -2407,7 +2338,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -2430,7 +2361,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>60</v>
@@ -2453,7 +2384,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
@@ -2476,7 +2407,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>67</v>
@@ -2499,7 +2430,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
@@ -2522,7 +2453,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>77</v>
@@ -2545,7 +2476,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>82</v>
@@ -2568,7 +2499,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>87</v>
@@ -2591,7 +2522,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>92</v>
@@ -2614,7 +2545,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>97</v>
@@ -2637,7 +2568,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>102</v>
@@ -2660,7 +2591,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>107</v>
@@ -2683,7 +2614,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>112</v>
@@ -2706,7 +2637,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>117</v>
@@ -2729,7 +2660,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>122</v>
@@ -2752,7 +2683,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>127</v>
@@ -2775,7 +2706,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>132</v>
@@ -2798,7 +2729,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>137</v>
@@ -2821,7 +2752,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>142</v>
@@ -2844,7 +2775,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>147</v>
@@ -2867,7 +2798,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>151</v>
@@ -2890,7 +2821,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>156</v>
@@ -2913,7 +2844,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>161</v>
@@ -2936,7 +2867,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>166</v>
@@ -2959,7 +2890,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>171</v>
@@ -2982,7 +2913,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>176</v>
@@ -3005,7 +2936,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>177</v>
@@ -3028,7 +2959,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>182</v>
@@ -3051,7 +2982,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>185</v>
@@ -3074,7 +3005,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>190</v>
@@ -3097,7 +3028,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>195</v>
@@ -3120,7 +3051,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>200</v>
@@ -3143,7 +3074,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>205</v>
@@ -3166,7 +3097,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>210</v>
@@ -3189,7 +3120,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>215</v>
@@ -3212,7 +3143,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>219</v>
@@ -3235,7 +3166,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>224</v>
@@ -3258,7 +3189,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>228</v>
@@ -3281,7 +3212,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>233</v>
@@ -3304,7 +3235,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>242</v>
@@ -3312,7 +3243,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>243</v>
@@ -3320,7 +3251,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>244</v>
@@ -3328,7 +3259,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>245</v>
@@ -3336,210 +3267,210 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
